--- a/pabi_account_report/xlsx_template/xlsx_report_revenue_ledger.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_revenue_ledger.xlsx
@@ -314,16 +314,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -335,11 +339,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -433,8 +433,8 @@
   </sheetPr>
   <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP8" activeCellId="0" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -446,79 +446,88 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="15.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="15.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="13" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="19" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="40" min="24" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="42" min="41" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="45" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
+      <c r="A1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="12" s="10" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>

--- a/pabi_account_report/xlsx_template/xlsx_report_revenue_ledger.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_revenue_ledger.xlsx
@@ -221,9 +221,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="#,###.00"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -309,7 +310,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,6 +323,14 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -334,7 +343,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -433,261 +442,386 @@
   </sheetPr>
   <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP8" activeCellId="0" sqref="AP8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="15.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="13" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="19" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="40" min="24" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="42" min="41" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="45" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="21.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="4" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="4" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="23.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="4" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="4" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="4" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="4" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="23.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="54" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5"/>
+      <c r="L1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="L2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="L3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="7"/>
+      <c r="L4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="7"/>
+      <c r="L5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AR5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="7"/>
+      <c r="L6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AR6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="7"/>
+      <c r="L7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AR7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="D8" s="8"/>
+      <c r="L8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AR8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="7"/>
+      <c r="L9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AR9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="12" s="10" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="B10" s="8"/>
+      <c r="L10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AR10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AR11" s="2"/>
+    </row>
+    <row r="12" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="8" t="s">
+      <c r="U12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="V12" s="8" t="s">
+      <c r="V12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="W12" s="8" t="s">
+      <c r="W12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="8" t="s">
+      <c r="X12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Y12" s="8" t="s">
+      <c r="Y12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Z12" s="8" t="s">
+      <c r="Z12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" s="8" t="s">
+      <c r="AA12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AB12" s="8" t="s">
+      <c r="AB12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AC12" s="8" t="s">
+      <c r="AC12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AD12" s="8" t="s">
+      <c r="AD12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AE12" s="8" t="s">
+      <c r="AE12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AF12" s="8" t="s">
+      <c r="AF12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AG12" s="8" t="s">
+      <c r="AG12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AH12" s="8" t="s">
+      <c r="AH12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AI12" s="8" t="s">
+      <c r="AI12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AJ12" s="8" t="s">
+      <c r="AJ12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AK12" s="8" t="s">
+      <c r="AK12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AL12" s="8" t="s">
+      <c r="AL12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AM12" s="8" t="s">
+      <c r="AM12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AN12" s="8" t="s">
+      <c r="AN12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AO12" s="8" t="s">
+      <c r="AO12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AP12" s="8" t="s">
+      <c r="AP12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AQ12" s="8" t="s">
+      <c r="AQ12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AR12" s="8" t="s">
+      <c r="AR12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AS12" s="8" t="s">
+      <c r="AS12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AT12" s="8" t="s">
+      <c r="AT12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AU12" s="8" t="s">
+      <c r="AU12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AV12" s="8" t="s">
+      <c r="AV12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AW12" s="8" t="s">
+      <c r="AW12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AX12" s="8" t="s">
+      <c r="AX12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AY12" s="8" t="s">
+      <c r="AY12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AZ12" s="8" t="s">
+      <c r="AZ12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BA12" s="8" t="s">
+      <c r="BA12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="BB12" s="9"/>
+      <c r="BB12" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/pabi_account_report/xlsx_template/xlsx_report_revenue_ledger.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_revenue_ledger.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">Revenue Ledger Report</t>
   </si>
   <si>
     <t xml:space="preserve">Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget</t>
   </si>
   <si>
     <t xml:space="preserve">Partner</t>
@@ -365,12 +368,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -440,7 +443,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BB13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -450,7 +453,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.01"/>
@@ -470,7 +473,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="4" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="4" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="22.36"/>
@@ -482,24 +485,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="4" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="4" width="22.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="4" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="24.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="21.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="23.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="54" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -560,10 +563,6 @@
         <v>3</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7"/>
       <c r="L5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -575,9 +574,13 @@
     </row>
     <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="L6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -592,10 +595,6 @@
         <v>6</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7"/>
       <c r="L7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -607,13 +606,13 @@
     </row>
     <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="L8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -624,10 +623,14 @@
       <c r="AR8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="L9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -641,7 +644,7 @@
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="7"/>
       <c r="L10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -652,6 +655,10 @@
       <c r="AR10" s="2"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8"/>
       <c r="L11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -661,167 +668,177 @@
       <c r="AP11" s="2"/>
       <c r="AR11" s="2"/>
     </row>
-    <row r="12" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AR12" s="2"/>
+    </row>
+    <row r="13" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="O13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="P13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="Q13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="R13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="S13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="10" t="s">
+      <c r="T13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="U13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="V13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="10" t="s">
+      <c r="W13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Y12" s="10" t="s">
+      <c r="X13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Z12" s="10" t="s">
+      <c r="Y13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" s="10" t="s">
+      <c r="Z13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AB12" s="10" t="s">
+      <c r="AA13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AC12" s="10" t="s">
+      <c r="AB13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AD12" s="10" t="s">
+      <c r="AC13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AE12" s="10" t="s">
+      <c r="AD13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AF12" s="10" t="s">
+      <c r="AE13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AG12" s="10" t="s">
+      <c r="AF13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AH12" s="10" t="s">
+      <c r="AG13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AI12" s="10" t="s">
+      <c r="AH13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AJ12" s="10" t="s">
+      <c r="AI13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AK12" s="10" t="s">
+      <c r="AJ13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AL12" s="10" t="s">
+      <c r="AK13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AM12" s="10" t="s">
+      <c r="AL13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AN12" s="10" t="s">
+      <c r="AM13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AO12" s="10" t="s">
+      <c r="AN13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AP12" s="10" t="s">
+      <c r="AO13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AQ12" s="10" t="s">
+      <c r="AP13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AR12" s="10" t="s">
+      <c r="AQ13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AS12" s="10" t="s">
+      <c r="AR13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AT12" s="10" t="s">
+      <c r="AS13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AU12" s="10" t="s">
+      <c r="AT13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AV12" s="10" t="s">
+      <c r="AU13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AW12" s="10" t="s">
+      <c r="AV13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AX12" s="10" t="s">
+      <c r="AW13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AY12" s="10" t="s">
+      <c r="AX13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AZ12" s="10" t="s">
+      <c r="AY13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BA12" s="10" t="s">
+      <c r="AZ13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="BB12" s="11"/>
+      <c r="BA13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB13" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/pabi_account_report/xlsx_template/xlsx_report_revenue_ledger.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_revenue_ledger.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t xml:space="preserve">Revenue Ledger Report</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Partner</t>
   </si>
   <si>
+    <t xml:space="preserve">Charge Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fiscal Year From</t>
   </si>
   <si>
@@ -59,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">Run Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge Type</t>
   </si>
   <si>
     <t xml:space="preserve">Account Code</t>
@@ -443,7 +443,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BB13"/>
+  <dimension ref="A1:BB14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -492,7 +492,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="4" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="4" width="22.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="4" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="15.68"/>
@@ -501,7 +501,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="24.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="23.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="54" style="1" width="11.52"/>
   </cols>
@@ -577,10 +577,6 @@
         <v>4</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7"/>
       <c r="L6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -592,9 +588,13 @@
     </row>
     <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="L7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -609,10 +609,6 @@
         <v>7</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7"/>
       <c r="L8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -624,13 +620,13 @@
     </row>
     <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
       <c r="L9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -641,10 +637,14 @@
       <c r="AR9" s="2"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="L10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -658,7 +658,7 @@
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
       <c r="L11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -669,6 +669,10 @@
       <c r="AR11" s="2"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8"/>
       <c r="L12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -678,167 +682,177 @@
       <c r="AP12" s="2"/>
       <c r="AR12" s="2"/>
     </row>
-    <row r="13" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10" t="s">
+    <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AR13" s="2"/>
+    </row>
+    <row r="14" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="R14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="S14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T13" s="10" t="s">
+      <c r="T14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="U14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="V14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="W14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="X14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Y13" s="10" t="s">
+      <c r="Y14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Z13" s="10" t="s">
+      <c r="Z14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AA13" s="10" t="s">
+      <c r="AA14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AB13" s="10" t="s">
+      <c r="AB14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AC13" s="10" t="s">
+      <c r="AC14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AD13" s="10" t="s">
+      <c r="AD14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AE13" s="10" t="s">
+      <c r="AE14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AF13" s="10" t="s">
+      <c r="AF14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AG13" s="10" t="s">
+      <c r="AG14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AH13" s="10" t="s">
+      <c r="AH14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AI13" s="10" t="s">
+      <c r="AI14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AJ13" s="10" t="s">
+      <c r="AJ14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AK13" s="10" t="s">
+      <c r="AK14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AL13" s="10" t="s">
+      <c r="AL14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AM13" s="10" t="s">
+      <c r="AM14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AN13" s="10" t="s">
+      <c r="AN14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AO13" s="10" t="s">
+      <c r="AO14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AP13" s="10" t="s">
+      <c r="AP14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AQ13" s="10" t="s">
+      <c r="AQ14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AR13" s="10" t="s">
+      <c r="AR14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AS13" s="10" t="s">
+      <c r="AS14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AT13" s="10" t="s">
+      <c r="AT14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AU13" s="10" t="s">
+      <c r="AU14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AV13" s="10" t="s">
+      <c r="AV14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AW13" s="10" t="s">
+      <c r="AW14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AX13" s="10" t="s">
+      <c r="AX14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AY13" s="10" t="s">
+      <c r="AY14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AZ13" s="10" t="s">
+      <c r="AZ14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="BA13" s="10" t="s">
+      <c r="BA14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="BB13" s="11"/>
+      <c r="BB14" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
